--- a/team_specific_matrix/VCU_A.xlsx
+++ b/team_specific_matrix/VCU_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1617647058823529</v>
+        <v>0.1544401544401544</v>
       </c>
       <c r="C2">
-        <v>0.6225490196078431</v>
+        <v>0.6177606177606177</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009803921568627451</v>
+        <v>0.007722007722007722</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1519607843137255</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.05392156862745098</v>
+        <v>0.07722007722007722</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07246376811594203</v>
+        <v>0.06358381502890173</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04347826086956522</v>
+        <v>0.04046242774566474</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7391304347826086</v>
+        <v>0.7687861271676301</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1449275362318841</v>
+        <v>0.1271676300578035</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1052631578947368</v>
+        <v>0.08</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7368421052631579</v>
+        <v>0.68</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1578947368421053</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04605263157894737</v>
+        <v>0.04591836734693878</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0131578947368421</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04605263157894737</v>
+        <v>0.05102040816326531</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2171052631578947</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0131578947368421</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1513157894736842</v>
+        <v>0.1479591836734694</v>
       </c>
       <c r="R6">
-        <v>0.1052631578947368</v>
+        <v>0.09693877551020408</v>
       </c>
       <c r="S6">
-        <v>0.4078947368421053</v>
+        <v>0.4081632653061225</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1418918918918919</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01351351351351351</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03378378378378379</v>
+        <v>0.03954802259887006</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1013513513513514</v>
+        <v>0.1073446327683616</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02702702702702703</v>
+        <v>0.02824858757062147</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1418918918918919</v>
+        <v>0.1468926553672316</v>
       </c>
       <c r="R7">
-        <v>0.1216216216216216</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="S7">
-        <v>0.4189189189189189</v>
+        <v>0.3954802259887006</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1164383561643836</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01027397260273973</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0958904109589041</v>
+        <v>0.08516483516483517</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1164383561643836</v>
+        <v>0.1043956043956044</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02397260273972603</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1575342465753425</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="R8">
-        <v>0.0958904109589041</v>
+        <v>0.1016483516483516</v>
       </c>
       <c r="S8">
-        <v>0.3835616438356164</v>
+        <v>0.4148351648351649</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08737864077669903</v>
+        <v>0.072992700729927</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009708737864077669</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06796116504854369</v>
+        <v>0.0948905109489051</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08737864077669903</v>
+        <v>0.1021897810218978</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.009708737864077669</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1844660194174757</v>
+        <v>0.1605839416058394</v>
       </c>
       <c r="R9">
-        <v>0.145631067961165</v>
+        <v>0.1605839416058394</v>
       </c>
       <c r="S9">
-        <v>0.4077669902912621</v>
+        <v>0.3941605839416059</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1156542056074766</v>
+        <v>0.1202938475665748</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01401869158878505</v>
+        <v>0.01469237832874196</v>
       </c>
       <c r="E10">
-        <v>0.00116822429906542</v>
+        <v>0.002754820936639119</v>
       </c>
       <c r="F10">
-        <v>0.08878504672897196</v>
+        <v>0.08999081726354453</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09813084112149532</v>
+        <v>0.1019283746556474</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.007009345794392523</v>
+        <v>0.009182736455463728</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1927570093457944</v>
+        <v>0.1891643709825528</v>
       </c>
       <c r="R10">
-        <v>0.1039719626168224</v>
+        <v>0.09182736455463728</v>
       </c>
       <c r="S10">
-        <v>0.3785046728971962</v>
+        <v>0.3801652892561984</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1542056074766355</v>
+        <v>0.1520912547528517</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07009345794392523</v>
+        <v>0.07224334600760456</v>
       </c>
       <c r="K11">
-        <v>0.1775700934579439</v>
+        <v>0.1863117870722434</v>
       </c>
       <c r="L11">
-        <v>0.5887850467289719</v>
+        <v>0.5817490494296578</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009345794392523364</v>
+        <v>0.007604562737642586</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8174603174603174</v>
+        <v>0.7806451612903226</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1349206349206349</v>
+        <v>0.167741935483871</v>
       </c>
       <c r="K12">
-        <v>0.01587301587301587</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="L12">
-        <v>0.01587301587301587</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01587301587301587</v>
+        <v>0.01290322580645161</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4814814814814815</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4814814814814815</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03703703703703703</v>
+        <v>0.08823529411764706</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.007936507936507936</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2142857142857143</v>
+        <v>0.2085889570552147</v>
       </c>
       <c r="I15">
-        <v>0.03174603174603174</v>
+        <v>0.03680981595092025</v>
       </c>
       <c r="J15">
-        <v>0.3571428571428572</v>
+        <v>0.3619631901840491</v>
       </c>
       <c r="K15">
-        <v>0.09523809523809523</v>
+        <v>0.09202453987730061</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05555555555555555</v>
+        <v>0.05521472392638037</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2380952380952381</v>
+        <v>0.2392638036809816</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02097902097902098</v>
+        <v>0.01648351648351648</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1398601398601399</v>
+        <v>0.1318681318681319</v>
       </c>
       <c r="I16">
-        <v>0.06293706293706294</v>
+        <v>0.06043956043956044</v>
       </c>
       <c r="J16">
-        <v>0.3496503496503496</v>
+        <v>0.4010989010989011</v>
       </c>
       <c r="K16">
-        <v>0.1818181818181818</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03496503496503497</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04195804195804196</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1678321678321678</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.007326007326007326</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1831501831501831</v>
+        <v>0.1769911504424779</v>
       </c>
       <c r="I17">
-        <v>0.08058608058608059</v>
+        <v>0.08554572271386431</v>
       </c>
       <c r="J17">
-        <v>0.4322344322344323</v>
+        <v>0.4365781710914454</v>
       </c>
       <c r="K17">
-        <v>0.1391941391941392</v>
+        <v>0.135693215339233</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01098901098901099</v>
+        <v>0.01474926253687316</v>
       </c>
       <c r="N17">
-        <v>0.003663003663003663</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="O17">
-        <v>0.05494505494505494</v>
+        <v>0.05014749262536873</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08791208791208792</v>
+        <v>0.08849557522123894</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2242424242424242</v>
+        <v>0.2193877551020408</v>
       </c>
       <c r="I18">
-        <v>0.07878787878787878</v>
+        <v>0.07653061224489796</v>
       </c>
       <c r="J18">
-        <v>0.4242424242424243</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K18">
-        <v>0.07272727272727272</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006060606060606061</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05454545454545454</v>
+        <v>0.04591836734693878</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1393939393939394</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009685230024213076</v>
+        <v>0.0112464854732896</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1937046004842615</v>
+        <v>0.1930646672914714</v>
       </c>
       <c r="I19">
-        <v>0.06537530266343826</v>
+        <v>0.07029053420805999</v>
       </c>
       <c r="J19">
-        <v>0.4309927360774818</v>
+        <v>0.4170571696344892</v>
       </c>
       <c r="K19">
-        <v>0.1029055690072639</v>
+        <v>0.1002811621368322</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02179176755447942</v>
+        <v>0.01968134957825679</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05932203389830509</v>
+        <v>0.06279287722586692</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1162227602905569</v>
+        <v>0.1255857544517338</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/VCU_A.xlsx
+++ b/team_specific_matrix/VCU_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1544401544401544</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="C2">
-        <v>0.6177606177606177</v>
+        <v>0.6376306620209059</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007722007722007722</v>
+        <v>0.006968641114982578</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1428571428571428</v>
+        <v>0.132404181184669</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07722007722007722</v>
+        <v>0.07665505226480836</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06358381502890173</v>
+        <v>0.07035175879396985</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04046242774566474</v>
+        <v>0.03517587939698492</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7687861271676301</v>
+        <v>0.7587939698492462</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1271676300578035</v>
+        <v>0.135678391959799</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.68</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.24</v>
+        <v>0.2068965517241379</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04591836734693878</v>
+        <v>0.04629629629629629</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01530612244897959</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05102040816326531</v>
+        <v>0.04629629629629629</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2244897959183673</v>
+        <v>0.2175925925925926</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01020408163265306</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1479591836734694</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="R6">
-        <v>0.09693877551020408</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="S6">
-        <v>0.4081632653061225</v>
+        <v>0.4027777777777778</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1525423728813559</v>
+        <v>0.1565656565656566</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01129943502824859</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03954802259887006</v>
+        <v>0.03535353535353535</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1073446327683616</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02824858757062147</v>
+        <v>0.02525252525252525</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1468926553672316</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="R7">
-        <v>0.1186440677966102</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="S7">
-        <v>0.3954802259887006</v>
+        <v>0.404040404040404</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1098901098901099</v>
+        <v>0.1133501259445844</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01098901098901099</v>
+        <v>0.01007556675062972</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08516483516483517</v>
+        <v>0.08816120906801007</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1043956043956044</v>
+        <v>0.1007556675062972</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01923076923076923</v>
+        <v>0.01763224181360202</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1538461538461539</v>
+        <v>0.1536523929471033</v>
       </c>
       <c r="R8">
-        <v>0.1016483516483516</v>
+        <v>0.1057934508816121</v>
       </c>
       <c r="S8">
-        <v>0.4148351648351649</v>
+        <v>0.4105793450881612</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.072992700729927</v>
+        <v>0.0718562874251497</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0072992700729927</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0948905109489051</v>
+        <v>0.09580838323353294</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1021897810218978</v>
+        <v>0.1017964071856287</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0072992700729927</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1605839416058394</v>
+        <v>0.1497005988023952</v>
       </c>
       <c r="R9">
-        <v>0.1605839416058394</v>
+        <v>0.155688622754491</v>
       </c>
       <c r="S9">
-        <v>0.3941605839416059</v>
+        <v>0.407185628742515</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1202938475665748</v>
+        <v>0.1182707993474715</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01469237832874196</v>
+        <v>0.01468189233278956</v>
       </c>
       <c r="E10">
-        <v>0.002754820936639119</v>
+        <v>0.002446982055464926</v>
       </c>
       <c r="F10">
-        <v>0.08999081726354453</v>
+        <v>0.0864600326264274</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1019283746556474</v>
+        <v>0.1060358890701468</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009182736455463728</v>
+        <v>0.009787928221859706</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1891643709825528</v>
+        <v>0.1924959216965742</v>
       </c>
       <c r="R10">
-        <v>0.09182736455463728</v>
+        <v>0.09216965742251224</v>
       </c>
       <c r="S10">
-        <v>0.3801652892561984</v>
+        <v>0.3776508972267537</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1520912547528517</v>
+        <v>0.1423728813559322</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07224334600760456</v>
+        <v>0.07457627118644068</v>
       </c>
       <c r="K11">
-        <v>0.1863117870722434</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="L11">
-        <v>0.5817490494296578</v>
+        <v>0.5898305084745763</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007604562737642586</v>
+        <v>0.006779661016949152</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7806451612903226</v>
+        <v>0.768361581920904</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.167741935483871</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="K12">
-        <v>0.01935483870967742</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="L12">
-        <v>0.01935483870967742</v>
+        <v>0.02824858757062147</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01290322580645161</v>
+        <v>0.01694915254237288</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5294117647058824</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3823529411764706</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08823529411764706</v>
+        <v>0.0975609756097561</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.006134969325153374</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2085889570552147</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="I15">
-        <v>0.03680981595092025</v>
+        <v>0.04395604395604396</v>
       </c>
       <c r="J15">
-        <v>0.3619631901840491</v>
+        <v>0.3516483516483517</v>
       </c>
       <c r="K15">
-        <v>0.09202453987730061</v>
+        <v>0.08791208791208792</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05521472392638037</v>
+        <v>0.06593406593406594</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2392638036809816</v>
+        <v>0.2472527472527473</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01648351648351648</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1318681318681319</v>
+        <v>0.1280788177339902</v>
       </c>
       <c r="I16">
-        <v>0.06043956043956044</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="J16">
-        <v>0.4010989010989011</v>
+        <v>0.4088669950738916</v>
       </c>
       <c r="K16">
         <v>0.1428571428571428</v>
@@ -1357,13 +1357,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03846153846153846</v>
+        <v>0.03940886699507389</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05494505494505494</v>
+        <v>0.0541871921182266</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1538461538461539</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.008849557522123894</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1769911504424779</v>
+        <v>0.1709844559585492</v>
       </c>
       <c r="I17">
-        <v>0.08554572271386431</v>
+        <v>0.09844559585492228</v>
       </c>
       <c r="J17">
-        <v>0.4365781710914454</v>
+        <v>0.4404145077720207</v>
       </c>
       <c r="K17">
-        <v>0.135693215339233</v>
+        <v>0.1295336787564767</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01474926253687316</v>
+        <v>0.01813471502590673</v>
       </c>
       <c r="N17">
-        <v>0.002949852507374631</v>
+        <v>0.002590673575129534</v>
       </c>
       <c r="O17">
-        <v>0.05014749262536873</v>
+        <v>0.04922279792746114</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08849557522123894</v>
+        <v>0.08031088082901554</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2193877551020408</v>
+        <v>0.2053571428571428</v>
       </c>
       <c r="I18">
-        <v>0.07653061224489796</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="J18">
-        <v>0.4285714285714285</v>
+        <v>0.4196428571428572</v>
       </c>
       <c r="K18">
-        <v>0.08163265306122448</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.00510204081632653</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04591836734693878</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1428571428571428</v>
+        <v>0.1339285714285714</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0112464854732896</v>
+        <v>0.01012658227848101</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1930646672914714</v>
+        <v>0.1915611814345992</v>
       </c>
       <c r="I19">
-        <v>0.07029053420805999</v>
+        <v>0.07257383966244725</v>
       </c>
       <c r="J19">
-        <v>0.4170571696344892</v>
+        <v>0.4210970464135021</v>
       </c>
       <c r="K19">
-        <v>0.1002811621368322</v>
+        <v>0.1021097046413502</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01968134957825679</v>
+        <v>0.01940928270042194</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06279287722586692</v>
+        <v>0.06160337552742616</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1255857544517338</v>
+        <v>0.1215189873417721</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/VCU_A.xlsx
+++ b/team_specific_matrix/VCU_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1463414634146341</v>
+        <v>0.1533333333333333</v>
       </c>
       <c r="C2">
-        <v>0.6376306620209059</v>
+        <v>0.6266666666666667</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006968641114982578</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.132404181184669</v>
+        <v>0.14</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07665505226480836</v>
+        <v>0.07333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07035175879396985</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03517587939698492</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7587939698492462</v>
+        <v>0.7598039215686274</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.135678391959799</v>
+        <v>0.1323529411764706</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06896551724137931</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7241379310344828</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2068965517241379</v>
+        <v>0.2580645161290323</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04629629629629629</v>
+        <v>0.04291845493562232</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01388888888888889</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04629629629629629</v>
+        <v>0.04721030042918455</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2175925925925926</v>
+        <v>0.2188841201716738</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009259259259259259</v>
+        <v>0.0128755364806867</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1527777777777778</v>
+        <v>0.1545064377682404</v>
       </c>
       <c r="R6">
-        <v>0.1111111111111111</v>
+        <v>0.1072961373390558</v>
       </c>
       <c r="S6">
-        <v>0.4027777777777778</v>
+        <v>0.3991416309012876</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1565656565656566</v>
+        <v>0.1435185185185185</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01515151515151515</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03535353535353535</v>
+        <v>0.03240740740740741</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1060606060606061</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02525252525252525</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1515151515151515</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="R7">
-        <v>0.1060606060606061</v>
+        <v>0.1203703703703704</v>
       </c>
       <c r="S7">
-        <v>0.404040404040404</v>
+        <v>0.4212962962962963</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1133501259445844</v>
+        <v>0.1108490566037736</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01007556675062972</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08816120906801007</v>
+        <v>0.08490566037735849</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1007556675062972</v>
+        <v>0.1037735849056604</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01763224181360202</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1536523929471033</v>
+        <v>0.1485849056603774</v>
       </c>
       <c r="R8">
-        <v>0.1057934508816121</v>
+        <v>0.1108490566037736</v>
       </c>
       <c r="S8">
-        <v>0.4105793450881612</v>
+        <v>0.4127358490566038</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0718562874251497</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01197604790419162</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09580838323353294</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1017964071856287</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.005988023952095809</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1497005988023952</v>
+        <v>0.1436170212765958</v>
       </c>
       <c r="R9">
-        <v>0.155688622754491</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="S9">
-        <v>0.407185628742515</v>
+        <v>0.4095744680851064</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1182707993474715</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01468189233278956</v>
+        <v>0.01450381679389313</v>
       </c>
       <c r="E10">
-        <v>0.002446982055464926</v>
+        <v>0.002290076335877863</v>
       </c>
       <c r="F10">
-        <v>0.0864600326264274</v>
+        <v>0.08778625954198473</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1060358890701468</v>
+        <v>0.1038167938931298</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009787928221859706</v>
+        <v>0.009923664122137405</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1924959216965742</v>
+        <v>0.1923664122137405</v>
       </c>
       <c r="R10">
-        <v>0.09216965742251224</v>
+        <v>0.09465648854961832</v>
       </c>
       <c r="S10">
-        <v>0.3776508972267537</v>
+        <v>0.3801526717557252</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1423728813559322</v>
+        <v>0.1487341772151899</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07457627118644068</v>
+        <v>0.06962025316455696</v>
       </c>
       <c r="K11">
-        <v>0.1864406779661017</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="L11">
-        <v>0.5898305084745763</v>
+        <v>0.5854430379746836</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006779661016949152</v>
+        <v>0.006329113924050633</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.768361581920904</v>
+        <v>0.7807486631016043</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1694915254237288</v>
+        <v>0.160427807486631</v>
       </c>
       <c r="K12">
-        <v>0.01694915254237288</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="L12">
-        <v>0.02824858757062147</v>
+        <v>0.0267379679144385</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01694915254237288</v>
+        <v>0.0160427807486631</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5365853658536586</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3658536585365854</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0975609756097561</v>
+        <v>0.08695652173913043</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.005494505494505495</v>
+        <v>0.005</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1923076923076923</v>
+        <v>0.185</v>
       </c>
       <c r="I15">
-        <v>0.04395604395604396</v>
+        <v>0.05</v>
       </c>
       <c r="J15">
-        <v>0.3516483516483517</v>
+        <v>0.35</v>
       </c>
       <c r="K15">
-        <v>0.08791208791208792</v>
+        <v>0.08</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005494505494505495</v>
+        <v>0.01</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06593406593406594</v>
+        <v>0.06</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2472527472527473</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01477832512315271</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1280788177339902</v>
+        <v>0.1374407582938389</v>
       </c>
       <c r="I16">
-        <v>0.06896551724137931</v>
+        <v>0.06635071090047394</v>
       </c>
       <c r="J16">
-        <v>0.4088669950738916</v>
+        <v>0.4075829383886256</v>
       </c>
       <c r="K16">
-        <v>0.1428571428571428</v>
+        <v>0.1421800947867299</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03940886699507389</v>
+        <v>0.03791469194312796</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0541871921182266</v>
+        <v>0.05213270142180094</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1428571428571428</v>
+        <v>0.1421800947867299</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01036269430051814</v>
+        <v>0.009732360097323601</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1709844559585492</v>
+        <v>0.170316301703163</v>
       </c>
       <c r="I17">
-        <v>0.09844559585492228</v>
+        <v>0.09975669099756691</v>
       </c>
       <c r="J17">
-        <v>0.4404145077720207</v>
+        <v>0.4355231143552312</v>
       </c>
       <c r="K17">
-        <v>0.1295336787564767</v>
+        <v>0.1240875912408759</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01813471502590673</v>
+        <v>0.0170316301703163</v>
       </c>
       <c r="N17">
-        <v>0.002590673575129534</v>
+        <v>0.0024330900243309</v>
       </c>
       <c r="O17">
-        <v>0.04922279792746114</v>
+        <v>0.0583941605839416</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08031088082901554</v>
+        <v>0.0827250608272506</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.004016064257028112</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2053571428571428</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="I18">
-        <v>0.08928571428571429</v>
+        <v>0.1044176706827309</v>
       </c>
       <c r="J18">
-        <v>0.4196428571428572</v>
+        <v>0.4136546184738956</v>
       </c>
       <c r="K18">
-        <v>0.08928571428571429</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008928571428571428</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05357142857142857</v>
+        <v>0.05220883534136546</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1339285714285714</v>
+        <v>0.1244979919678715</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01012658227848101</v>
+        <v>0.01018808777429467</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1915611814345992</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="I19">
-        <v>0.07257383966244725</v>
+        <v>0.07601880877742946</v>
       </c>
       <c r="J19">
-        <v>0.4210970464135021</v>
+        <v>0.4216300940438871</v>
       </c>
       <c r="K19">
-        <v>0.1021097046413502</v>
+        <v>0.1018808777429467</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01940928270042194</v>
+        <v>0.02037617554858934</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06160337552742616</v>
+        <v>0.06269592476489028</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1215189873417721</v>
+        <v>0.1175548589341693</v>
       </c>
     </row>
   </sheetData>
